--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\semester 8\universitychatbot\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1205,71 +1213,82 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="14">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FF122F53"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1279,7 +1298,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1289,92 +1308,79 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="16" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1564,25 +1570,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2023"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="62.44"/>
-    <col customWidth="1" min="2" max="2" width="67.33"/>
-    <col customWidth="1" min="3" max="6" width="10.56"/>
+    <col min="1" max="1" width="62.44140625" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" customWidth="1"/>
+    <col min="3" max="6" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>83</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>85</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>86</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>87</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>88</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>89</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>91</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>92</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>94</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>95</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>98</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>99</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>100</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>102</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>103</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>104</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>106</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>107</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>108</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>110</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>113</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>114</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>116</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>117</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>119</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>120</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>123</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>125</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>126</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
       <c r="A78" s="14" t="s">
         <v>127</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>128</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>129</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>131</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>135</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>137</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>139</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>141</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>143</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>145</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>146</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>148</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>149</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>153</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>155</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>156</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>158</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>159</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>163</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>172</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>173</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>175</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>176</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>177</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>178</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>179</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:2" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>180</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:2" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>181</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:2" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>182</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:2" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>184</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:2" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>186</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:2" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:2" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>189</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:2" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>191</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:2" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>193</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:2" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>194</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:2" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>195</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:2" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>197</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:2" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>199</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:2" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>200</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:2" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>202</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:2" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>204</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:2" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>206</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>208</v>
       </c>
@@ -2614,17 +2620,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:2" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>212</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:2" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>213</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:2" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>215</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>216</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>218</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:2" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>220</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:2" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>221</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:2" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>222</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:2" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>224</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:2" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>226</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:2" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>228</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:2" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>230</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:2" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>232</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:2" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>234</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:2" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>236</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:2" ht="15.75" customHeight="1">
       <c r="A147" s="16" t="s">
         <v>238</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:2" ht="15.75" customHeight="1">
       <c r="A148" s="16" t="s">
         <v>240</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:2" ht="15.75" customHeight="1">
       <c r="A149" s="16" t="s">
         <v>242</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:2" ht="15.75" customHeight="1">
       <c r="A150" s="16" t="s">
         <v>244</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:2" ht="15.75" customHeight="1">
       <c r="A151" s="16" t="s">
         <v>246</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:2" ht="15.75" customHeight="1">
       <c r="A152" s="16" t="s">
         <v>248</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:2" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>250</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:2" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>252</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:2" ht="15.75" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>253</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:2" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>254</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:2" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>255</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:2" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>256</v>
       </c>
@@ -2841,7 +2847,7 @@
         <v>you may click on this link https://www.youtube.com/channel/UCFgimy2ABAwoT723zpBhMcA</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:2" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>257</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>https://www.youtube.com/channel/UCFgimy2ABAwoT723zpBhMcA</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:2" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>258</v>
       </c>
@@ -2858,7 +2864,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:2" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>260</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:2" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>261</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:2" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>263</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:2" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>265</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:2" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>266</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:2" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>268</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:2" ht="15.75" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>269</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:2" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>270</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:2" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>272</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:2" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>273</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:2" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>275</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:2" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>277</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:2" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>278</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:2" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>279</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:2" ht="15.75" customHeight="1">
       <c r="A175" s="10" t="s">
         <v>280</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:2" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>282</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:2" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>283</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:2" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>284</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:2" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>286</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:2" ht="15.75" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>287</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:2" ht="15.75" customHeight="1">
       <c r="A181" s="19" t="s">
         <v>289</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:2" ht="15.75" customHeight="1">
       <c r="A182" s="19" t="s">
         <v>291</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:2" ht="15.75" customHeight="1">
       <c r="A183" s="19" t="s">
         <v>292</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>293</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:2" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>294</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:2" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>295</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:2" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>296</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:2" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>298</v>
       </c>
@@ -3082,7 +3088,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:2" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>299</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:2" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>300</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:2" ht="15.75" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>301</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:2" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>302</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:2" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>303</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:2" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>304</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:2" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>305</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:2" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>306</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:2" ht="15.75" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>307</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:2" ht="15.75" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>308</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:2" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>309</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:2" ht="15.75" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>311</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:2" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>312</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:2" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>313</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>315</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:2" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>316</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1">
       <c r="A205" s="20" t="s">
         <v>317</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1">
       <c r="A206" s="20" t="s">
         <v>319</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1">
       <c r="A207" s="20" t="s">
         <v>320</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:2" ht="15.75" customHeight="1">
       <c r="A208" s="20" t="s">
         <v>321</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:2" ht="15.75" customHeight="1">
       <c r="A209" s="20" t="s">
         <v>323</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:2" ht="15.75" customHeight="1">
       <c r="A210" s="20" t="s">
         <v>324</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:2" ht="15.75" customHeight="1">
       <c r="A211" s="20" t="s">
         <v>325</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1">
       <c r="A212" s="20" t="s">
         <v>327</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:2" ht="15.75" customHeight="1">
       <c r="A213" s="20" t="s">
         <v>328</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:2" ht="15.75" customHeight="1">
       <c r="A214" s="20" t="s">
         <v>329</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1">
       <c r="A215" s="20" t="s">
         <v>331</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:2" ht="15.75" customHeight="1">
       <c r="A216" s="20" t="s">
         <v>332</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:2" ht="15.75" customHeight="1">
       <c r="A217" s="20" t="s">
         <v>333</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:2" ht="15.75" customHeight="1">
       <c r="A218" s="20" t="s">
         <v>335</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:2" ht="15.75" customHeight="1">
       <c r="A219" s="20" t="s">
         <v>336</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:2" ht="15.75" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>337</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:2" ht="15.75" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>339</v>
       </c>
@@ -3346,7 +3352,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:2" ht="15.75" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>340</v>
       </c>
@@ -3354,11 +3360,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:2" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:2" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>341</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>343</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:2" ht="15.75" customHeight="1">
       <c r="A226" s="22" t="s">
         <v>345</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1">
       <c r="A227" s="22" t="s">
         <v>347</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1">
       <c r="A228" s="22" t="s">
         <v>348</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>349</v>
       </c>
@@ -3406,7 +3412,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>351</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>352</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1">
       <c r="A232" s="22" t="s">
         <v>353</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1">
       <c r="A233" s="22" t="s">
         <v>355</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1">
       <c r="A234" s="22" t="s">
         <v>356</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>358</v>
       </c>
@@ -3454,7 +3460,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>360</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>361</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1">
       <c r="A238" s="22" t="s">
         <v>362</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1">
       <c r="A239" s="22" t="s">
         <v>364</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1">
       <c r="A240" s="22" t="s">
         <v>365</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:2" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>366</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:2" ht="15.75" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>368</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:2" ht="15.75" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>369</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:2" ht="15.75" customHeight="1">
       <c r="A244" s="22" t="s">
         <v>370</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1">
       <c r="A245" s="22" t="s">
         <v>371</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:2" ht="15.75" customHeight="1">
       <c r="A246" s="22" t="s">
         <v>372</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:2" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>373</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:2" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>375</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>373</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1">
       <c r="A250" s="22" t="s">
         <v>376</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1">
       <c r="A251" s="22" t="s">
         <v>378</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:2" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>379</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:2" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>381</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>382</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1">
       <c r="A255" s="22" t="s">
         <v>383</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:2" ht="15.75" customHeight="1">
       <c r="A256" s="22" t="s">
         <v>384</v>
       </c>
@@ -3622,7 +3628,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:2" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>385</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:2" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>387</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:2" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>385</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:2" ht="15.75" customHeight="1">
       <c r="A260" s="22" t="s">
         <v>388</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:2" ht="15.75" customHeight="1">
       <c r="A261" s="22" t="s">
         <v>389</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:2" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>390</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:2" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>392</v>
       </c>
@@ -3678,7 +3684,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:2" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>390</v>
       </c>
@@ -3686,14 +3692,14 @@
         <v>391</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="265" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="266" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="267" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="268" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="269" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="270" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="271" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="272" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="273" ht="15.75" customHeight="1"/>
     <row r="274" ht="15.75" customHeight="1"/>
     <row r="275" ht="15.75" customHeight="1"/>
@@ -5447,36 +5453,34 @@
     <row r="2023" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B20"/>
-    <hyperlink r:id="rId2" ref="B29"/>
-    <hyperlink r:id="rId3" ref="B141"/>
-    <hyperlink r:id="rId4" ref="B224"/>
-    <hyperlink r:id="rId5" ref="B225"/>
-    <hyperlink r:id="rId6" ref="B229"/>
-    <hyperlink r:id="rId7" ref="B230"/>
-    <hyperlink r:id="rId8" ref="B231"/>
-    <hyperlink r:id="rId9" ref="B235"/>
-    <hyperlink r:id="rId10" ref="B236"/>
-    <hyperlink r:id="rId11" ref="B237"/>
-    <hyperlink r:id="rId12" ref="B241"/>
-    <hyperlink r:id="rId13" ref="B242"/>
-    <hyperlink r:id="rId14" ref="B243"/>
-    <hyperlink r:id="rId15" ref="B247"/>
-    <hyperlink r:id="rId16" ref="B248"/>
-    <hyperlink r:id="rId17" ref="B249"/>
-    <hyperlink r:id="rId18" ref="B252"/>
-    <hyperlink r:id="rId19" ref="B253"/>
-    <hyperlink r:id="rId20" ref="B254"/>
-    <hyperlink r:id="rId21" ref="B257"/>
-    <hyperlink r:id="rId22" ref="B258"/>
-    <hyperlink r:id="rId23" ref="B259"/>
-    <hyperlink r:id="rId24" ref="B262"/>
-    <hyperlink r:id="rId25" ref="B263"/>
-    <hyperlink r:id="rId26" ref="B264"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B29" r:id="rId2"/>
+    <hyperlink ref="B141" r:id="rId3"/>
+    <hyperlink ref="B224" r:id="rId4"/>
+    <hyperlink ref="B225" r:id="rId5"/>
+    <hyperlink ref="B229" r:id="rId6"/>
+    <hyperlink ref="B230" r:id="rId7"/>
+    <hyperlink ref="B231" r:id="rId8"/>
+    <hyperlink ref="B235" r:id="rId9"/>
+    <hyperlink ref="B236" r:id="rId10"/>
+    <hyperlink ref="B237" r:id="rId11"/>
+    <hyperlink ref="B241" r:id="rId12"/>
+    <hyperlink ref="B242" r:id="rId13"/>
+    <hyperlink ref="B243" r:id="rId14"/>
+    <hyperlink ref="B247" r:id="rId15"/>
+    <hyperlink ref="B248" r:id="rId16"/>
+    <hyperlink ref="B249" r:id="rId17"/>
+    <hyperlink ref="B252" r:id="rId18"/>
+    <hyperlink ref="B253" r:id="rId19"/>
+    <hyperlink ref="B254" r:id="rId20"/>
+    <hyperlink ref="B257" r:id="rId21"/>
+    <hyperlink ref="B258" r:id="rId22"/>
+    <hyperlink ref="B259" r:id="rId23"/>
+    <hyperlink ref="B262" r:id="rId24"/>
+    <hyperlink ref="B263" r:id="rId25"/>
+    <hyperlink ref="B264" r:id="rId26"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId27"/>
 </worksheet>
 </file>